--- a/Data Mapping - Raw Data to Table and Columns.xlsx
+++ b/Data Mapping - Raw Data to Table and Columns.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nino\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Nino\Desktop\ETL-Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49331F7E-93FF-45A4-AB50-F6D8912593BF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0AC91672-395B-48D6-BF0B-62FDEB331F67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CDF96C2D-3DC1-422B-9E83-1369BC1FCFA2}"/>
+    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{CDF96C2D-3DC1-422B-9E83-1369BC1FCFA2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="154">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="389" uniqueCount="155">
   <si>
     <t>mineid</t>
   </si>
@@ -504,6 +504,9 @@
   </si>
   <si>
     <t>Replace "#NULL!" with "Nil Recorded".</t>
+  </si>
+  <si>
+    <t>injury_nature</t>
   </si>
 </sst>
 </file>
@@ -542,7 +545,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -564,6 +567,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -595,7 +604,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -636,6 +645,9 @@
     </xf>
     <xf numFmtId="0" fontId="3" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -954,7 +966,7 @@
   <dimension ref="A1:I63"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12" x14ac:dyDescent="0.2"/>
@@ -1031,10 +1043,10 @@
       </c>
       <c r="E4" s="2"/>
       <c r="F4" s="6" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="G4" s="9" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="H4" s="6" t="s">
         <v>120</v>
@@ -1053,15 +1065,15 @@
       <c r="C5" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D5" s="11" t="s">
+      <c r="D5" s="13" t="s">
         <v>148</v>
       </c>
       <c r="E5" s="2"/>
       <c r="F5" s="6" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="G5" s="9" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="H5" s="6" t="s">
         <v>120</v>
@@ -1080,7 +1092,7 @@
       <c r="C6" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D6" s="11" t="s">
+      <c r="D6" s="13" t="s">
         <v>149</v>
       </c>
       <c r="E6" s="2"/>
@@ -1107,7 +1119,7 @@
       <c r="C7" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="11" t="s">
+      <c r="D7" s="13" t="s">
         <v>148</v>
       </c>
       <c r="E7" s="2"/>
@@ -1134,15 +1146,15 @@
       <c r="C8" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D8" s="11" t="s">
+      <c r="D8" s="13" t="s">
         <v>148</v>
       </c>
       <c r="E8" s="2"/>
       <c r="F8" s="6" t="s">
-        <v>81</v>
+        <v>83</v>
       </c>
       <c r="G8" s="9" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="H8" s="6" t="s">
         <v>120</v>
@@ -1161,7 +1173,7 @@
       <c r="C9" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D9" s="11" t="s">
+      <c r="D9" s="13" t="s">
         <v>148</v>
       </c>
       <c r="E9" s="2"/>
@@ -1188,7 +1200,7 @@
       <c r="C10" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D10" s="11" t="s">
+      <c r="D10" s="13" t="s">
         <v>148</v>
       </c>
       <c r="E10" s="2"/>
@@ -1215,7 +1227,7 @@
       <c r="C11" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D11" s="11" t="s">
+      <c r="D11" s="13" t="s">
         <v>148</v>
       </c>
       <c r="E11" s="2"/>
@@ -1242,12 +1254,12 @@
       <c r="C12" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D12" s="11" t="s">
+      <c r="D12" s="13" t="s">
         <v>148</v>
       </c>
       <c r="E12" s="2"/>
       <c r="F12" s="6" t="s">
-        <v>1</v>
+        <v>89</v>
       </c>
       <c r="G12" s="9"/>
       <c r="H12" s="7" t="s">
@@ -1267,14 +1279,14 @@
       <c r="C13" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D13" s="11" t="s">
+      <c r="D13" s="13" t="s">
         <v>148</v>
       </c>
       <c r="E13" s="2"/>
       <c r="F13" s="6" t="s">
-        <v>89</v>
-      </c>
-      <c r="G13" s="9"/>
+        <v>92</v>
+      </c>
+      <c r="G13" s="6"/>
       <c r="H13" s="7" t="s">
         <v>132</v>
       </c>
@@ -1292,12 +1304,12 @@
       <c r="C14" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D14" s="11" t="s">
+      <c r="D14" s="13" t="s">
         <v>148</v>
       </c>
       <c r="E14" s="2"/>
       <c r="F14" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="G14" s="6"/>
       <c r="H14" s="7" t="s">
@@ -1317,12 +1329,12 @@
       <c r="C15" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D15" s="11" t="s">
+      <c r="D15" s="13" t="s">
         <v>148</v>
       </c>
       <c r="E15" s="2"/>
       <c r="F15" s="6" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="G15" s="6"/>
       <c r="H15" s="7" t="s">
@@ -1342,12 +1354,12 @@
       <c r="C16" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D16" s="11" t="s">
+      <c r="D16" s="13" t="s">
         <v>148</v>
       </c>
       <c r="E16" s="2"/>
       <c r="F16" s="6" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="G16" s="6"/>
       <c r="H16" s="7" t="s">
@@ -1367,12 +1379,12 @@
       <c r="C17" s="6" t="s">
         <v>61</v>
       </c>
-      <c r="D17" s="11" t="s">
+      <c r="D17" s="13" t="s">
         <v>150</v>
       </c>
       <c r="E17" s="2"/>
       <c r="F17" s="6" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="G17" s="6"/>
       <c r="H17" s="7" t="s">
@@ -1392,12 +1404,12 @@
       <c r="C18" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D18" s="11" t="s">
+      <c r="D18" s="13" t="s">
         <v>149</v>
       </c>
       <c r="E18" s="2"/>
       <c r="F18" s="6" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="G18" s="6"/>
       <c r="H18" s="7" t="s">
@@ -1417,12 +1429,12 @@
       <c r="C19" s="6" t="s">
         <v>66</v>
       </c>
-      <c r="D19" s="11" t="s">
+      <c r="D19" s="13" t="s">
         <v>149</v>
       </c>
       <c r="E19" s="2"/>
       <c r="F19" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="6"/>
       <c r="H19" s="7" t="s">
@@ -1447,7 +1459,7 @@
       </c>
       <c r="E20" s="2"/>
       <c r="F20" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="G20" s="6"/>
       <c r="H20" s="7" t="s">
@@ -1472,7 +1484,7 @@
       </c>
       <c r="E21" s="2"/>
       <c r="F21" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G21" s="6"/>
       <c r="H21" s="7" t="s">
@@ -1497,7 +1509,7 @@
       </c>
       <c r="E22" s="2"/>
       <c r="F22" s="6" t="s">
-        <v>112</v>
+        <v>116</v>
       </c>
       <c r="G22" s="6"/>
       <c r="H22" s="7" t="s">
@@ -1522,7 +1534,7 @@
       </c>
       <c r="E23" s="2"/>
       <c r="F23" s="6" t="s">
-        <v>116</v>
+        <v>10</v>
       </c>
       <c r="G23" s="6"/>
       <c r="H23" s="7" t="s">
@@ -1547,7 +1559,7 @@
       </c>
       <c r="E24" s="2"/>
       <c r="F24" s="6" t="s">
-        <v>10</v>
+        <v>55</v>
       </c>
       <c r="G24" s="6"/>
       <c r="H24" s="7" t="s">
@@ -1561,8 +1573,8 @@
       <c r="A25" s="6" t="s">
         <v>29</v>
       </c>
-      <c r="B25" s="9" t="s">
-        <v>67</v>
+      <c r="B25" s="15" t="s">
+        <v>154</v>
       </c>
       <c r="C25" s="6" t="s">
         <v>64</v>
@@ -1572,7 +1584,7 @@
       </c>
       <c r="E25" s="2"/>
       <c r="F25" s="6" t="s">
-        <v>55</v>
+        <v>58</v>
       </c>
       <c r="G25" s="6"/>
       <c r="H25" s="7" t="s">
@@ -1597,9 +1609,9 @@
       </c>
       <c r="E26" s="2"/>
       <c r="F26" s="6" t="s">
-        <v>58</v>
-      </c>
-      <c r="G26" s="6"/>
+        <v>1</v>
+      </c>
+      <c r="G26" s="9"/>
       <c r="H26" s="7" t="s">
         <v>132</v>
       </c>
@@ -1609,7 +1621,7 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A27" s="6" t="s">
-        <v>10</v>
+        <v>38</v>
       </c>
       <c r="B27" s="6"/>
       <c r="C27" s="7" t="s">
@@ -1632,7 +1644,7 @@
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A28" s="6" t="s">
-        <v>38</v>
+        <v>59</v>
       </c>
       <c r="B28" s="6"/>
       <c r="C28" s="7" t="s">
@@ -1655,7 +1667,7 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A29" s="6" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="B29" s="6"/>
       <c r="C29" s="7" t="s">
